--- a/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2B_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1476608319198043</v>
+        <v>0.1507039853332505</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4366089117689644</v>
+        <v>0.4364546204054673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2990093035859645</v>
+        <v>0.29788141674132</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1101115337518529</v>
+        <v>0.1098477528543686</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1215575661529553</v>
+        <v>0.1229550923987328</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4608955204250573</v>
+        <v>0.4644524411622218</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4063419970210627</v>
+        <v>0.403720041575939</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1815395227015284</v>
+        <v>0.1743256543481226</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1455142312886903</v>
+        <v>0.1462932496751514</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4687713577315086</v>
+        <v>0.4705273475526172</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3741790450666996</v>
+        <v>0.3761087286965993</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1647567496692721</v>
+        <v>0.1624072450619018</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.240253530804754</v>
+        <v>0.2441476611220318</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5644102652932977</v>
+        <v>0.5593260243592958</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.431019701074029</v>
+        <v>0.4370118305805252</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3004436690259668</v>
+        <v>0.2886739027372402</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2036612156888055</v>
+        <v>0.2046114739293891</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.58130855127627</v>
+        <v>0.5761715745995042</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5367101442488391</v>
+        <v>0.5212310683007805</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3578950943976606</v>
+        <v>0.3557599964537795</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2098444742410564</v>
+        <v>0.2088341361234878</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5537043457210075</v>
+        <v>0.5511808399408553</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4643476675140224</v>
+        <v>0.4641609953977301</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2886975974678002</v>
+        <v>0.2883720099016897</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2539418372017662</v>
+        <v>0.2503730583379067</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5113311651627064</v>
+        <v>0.5098533033228297</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5084245652653819</v>
+        <v>0.5074598834218467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2396341544065053</v>
+        <v>0.2362118628397115</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3030453560291502</v>
+        <v>0.3033711226914178</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7192464259141523</v>
+        <v>0.7213032952347924</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.611805079104122</v>
+        <v>0.6067778512968597</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2860071578439398</v>
+        <v>0.2837279213164878</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.291393401011192</v>
+        <v>0.2916975043588534</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6325372677656009</v>
+        <v>0.6285390947162025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.5758114163908391</v>
+        <v>0.5797025147473669</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2879894029589706</v>
+        <v>0.2821601476158088</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3447004084803693</v>
+        <v>0.3392077619369513</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.599806384116344</v>
+        <v>0.6035565161955302</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6226355160588151</v>
+        <v>0.6156121187185269</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4022358023816039</v>
+        <v>0.4023297586173551</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3898488062614793</v>
+        <v>0.3885139787948877</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.7987538695420968</v>
+        <v>0.7962352037180399</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6988256197478419</v>
+        <v>0.6951500956021216</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3909851139114224</v>
+        <v>0.3966935080015948</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3541632661377561</v>
+        <v>0.3552360979299898</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6923315312354502</v>
+        <v>0.6917932332660254</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.6478293007637209</v>
+        <v>0.6472024849820893</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3806603354358614</v>
+        <v>0.3747430477609751</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6117118299254701</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3292200081152334</v>
+        <v>0.3292200081152335</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2998969650821253</v>
@@ -957,7 +957,7 @@
         <v>0.6500744399515794</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2966293767501603</v>
+        <v>0.2966293767501604</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2859501189087816</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2316688588965023</v>
+        <v>0.2317010963291044</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6913425326075295</v>
+        <v>0.6925081161906653</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5645577343513523</v>
+        <v>0.5640516628246984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2836776993541991</v>
+        <v>0.2852648154331429</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2640138135377443</v>
+        <v>0.2643324872644148</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7296823271018456</v>
+        <v>0.735992434963581</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6112482064745592</v>
+        <v>0.6108609603171526</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.260803998264381</v>
+        <v>0.2637404353203837</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2600774136953398</v>
+        <v>0.2594411468208319</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7238616533025968</v>
+        <v>0.7209911245618369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6012750920655142</v>
+        <v>0.6017694568620642</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2839234951612695</v>
+        <v>0.2828176567073616</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3086543922584677</v>
+        <v>0.311558558478295</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7664666185897187</v>
+        <v>0.7628880381705578</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6556801255864423</v>
+        <v>0.6514920325505978</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3850340117801287</v>
+        <v>0.3792885784694963</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3379240385697742</v>
+        <v>0.3349116194702609</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8007853906987754</v>
+        <v>0.8003265335858675</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6877164073829067</v>
+        <v>0.6876360879261647</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3307699070162573</v>
+        <v>0.3316395269080452</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3137867586339681</v>
+        <v>0.3146892353807106</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.774140483068583</v>
+        <v>0.7712561525027655</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6607211478529003</v>
+        <v>0.6585946097268561</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.341667158671614</v>
+        <v>0.3411051405725079</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4045007240297412</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2416502445056116</v>
+        <v>0.2416502445056115</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1779267665273363</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1274717570242729</v>
+        <v>0.1257613221497019</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5021654011004414</v>
+        <v>0.5044034625955475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3655804430842448</v>
+        <v>0.366843135974542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2118291543563955</v>
+        <v>0.2086609809358844</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.15697882022047</v>
+        <v>0.1591519119004623</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3998331220384243</v>
+        <v>0.4039216100263315</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3623765005115424</v>
+        <v>0.3646930638563371</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2113808896568655</v>
+        <v>0.2145436458523075</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1512873523879674</v>
+        <v>0.1507536754073123</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4614882960429346</v>
+        <v>0.4633708951540089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3757311039076167</v>
+        <v>0.3729085477351302</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2205201798302329</v>
+        <v>0.2206739315030766</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2064500882286163</v>
+        <v>0.2012280320754848</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.595976859489411</v>
+        <v>0.5958198615594726</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4583646496043818</v>
+        <v>0.4574295769320258</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2892645208077268</v>
+        <v>0.2895185614429364</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2374629266398269</v>
+        <v>0.2339694568940911</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4971229123864885</v>
+        <v>0.4912965583830043</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4500827284169552</v>
+        <v>0.4523251128696829</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2722711175881155</v>
+        <v>0.2750711687099482</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2034544671081837</v>
+        <v>0.2073956962918992</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5288572463067147</v>
+        <v>0.5299941064463062</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4389412687509381</v>
+        <v>0.4364800119489073</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2711717793151584</v>
+        <v>0.2727580688503486</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1092041155652987</v>
+        <v>0.1111738710391417</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2556884297696084</v>
+        <v>0.2544276426215378</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1908307145272104</v>
+        <v>0.193789271878213</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1561125721652336</v>
+        <v>0.1585091582411346</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1668098537203494</v>
+        <v>0.1656045301912327</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2776829723915178</v>
+        <v>0.2753369394718056</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2208162554124522</v>
+        <v>0.2225508857657956</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1662601104360081</v>
+        <v>0.1697096042567771</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1470956560182892</v>
+        <v>0.1490934599245924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2796535975430176</v>
+        <v>0.2781456813850255</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2215243062188104</v>
+        <v>0.2213790151215443</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1717794947938401</v>
+        <v>0.1708861550325684</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1973967306455427</v>
+        <v>0.1963979284032847</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3506237699185913</v>
+        <v>0.3556637473342924</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2926088222031488</v>
+        <v>0.2902231595949822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2344072166364627</v>
+        <v>0.2383318370888848</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2574104584820688</v>
+        <v>0.2511432416511944</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3657890553259276</v>
+        <v>0.3672920173554953</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3141999739784382</v>
+        <v>0.3105404046992076</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2301036705896288</v>
+        <v>0.2306392926262913</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2097791985507401</v>
+        <v>0.2090644055681522</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3503343224809526</v>
+        <v>0.348422728287374</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2913427611786489</v>
+        <v>0.2878101991242911</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2228332719601226</v>
+        <v>0.2229609822601699</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1048963074035886</v>
+        <v>0.1068091222478387</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2428565988698501</v>
+        <v>0.2404331643529228</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1819079933016569</v>
+        <v>0.1772138372159507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08861091307587259</v>
+        <v>0.09142090820208552</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1921445582137438</v>
+        <v>0.1951844981348778</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2126960051516483</v>
+        <v>0.2169003333588478</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2329589781507934</v>
+        <v>0.2296573758063093</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1410554294055437</v>
+        <v>0.1419356755522048</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.162682816460451</v>
+        <v>0.1657872934114852</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.244417658488864</v>
+        <v>0.243930072019684</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2194312247581064</v>
+        <v>0.2190693392122965</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1254483094666468</v>
+        <v>0.1232176865028713</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1870456783784598</v>
+        <v>0.1865117699229692</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3569232787653654</v>
+        <v>0.3533142181474584</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2725129894607736</v>
+        <v>0.2704829115694903</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1431776432386705</v>
+        <v>0.14379420956184</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2797289697309281</v>
+        <v>0.282909634835374</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3105444338447625</v>
+        <v>0.3105334279609845</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3281281644346852</v>
+        <v>0.3211713749321634</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1932486235451512</v>
+        <v>0.1925360794812065</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2226676763833333</v>
+        <v>0.225862108889694</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3117625670881948</v>
+        <v>0.3170621352294871</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2842129115639537</v>
+        <v>0.2864461106361581</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1654391759526577</v>
+        <v>0.1609933613819898</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.4376734495860157</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.377387850901907</v>
+        <v>0.3773878509019071</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2232230801700896</v>
+        <v>0.2269414521403053</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.39681420109778</v>
+        <v>0.3956598659455174</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3139422672152185</v>
+        <v>0.3114330523766784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2503795677014294</v>
+        <v>0.2496972388147475</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2702373052520227</v>
+        <v>0.2745213141973267</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4524451211972602</v>
+        <v>0.4494713238501353</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4228776789292482</v>
+        <v>0.4252937745504346</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3991154381232795</v>
+        <v>0.400017407752308</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2656399003739175</v>
+        <v>0.2650999659905224</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4472659962277702</v>
+        <v>0.4424922323665786</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3941392809940839</v>
+        <v>0.3952290421245838</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3512406537344755</v>
+        <v>0.3526477122860584</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3442547950899715</v>
+        <v>0.3484048149379913</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5321017459303787</v>
+        <v>0.5375980685508445</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4225290102996321</v>
+        <v>0.4198410514104062</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3366675432877433</v>
+        <v>0.3379562311043623</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3804614684178232</v>
+        <v>0.3773912027448824</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5591613606130125</v>
+        <v>0.5536115672297953</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5360855613226587</v>
+        <v>0.5393067061065541</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4683403358129122</v>
+        <v>0.4657614488969753</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3479747661896537</v>
+        <v>0.3499381927653851</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5299103127825228</v>
+        <v>0.5273369023376923</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4789556861021718</v>
+        <v>0.4783745645488168</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4056716075523669</v>
+        <v>0.406096056249291</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.4696106301764345</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2771375617462544</v>
+        <v>0.2771375617462545</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2417807702481004</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1997265867019365</v>
+        <v>0.2019323028156871</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4989851814448812</v>
+        <v>0.4983786039270684</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.3965206009731178</v>
+        <v>0.396372153522688</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.222466979654051</v>
+        <v>0.2222240515644234</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2457077454174861</v>
+        <v>0.2455391409605985</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5231092060415907</v>
+        <v>0.5240740591191799</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4512429756476242</v>
+        <v>0.4513987966123028</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2626049487889739</v>
+        <v>0.2638142499921167</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2306955416027019</v>
+        <v>0.2293111814613061</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5175990084206729</v>
+        <v>0.516224134487397</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4309801130634306</v>
+        <v>0.4304120787649726</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2487975944949813</v>
+        <v>0.2489219292520159</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2341677167569262</v>
+        <v>0.2351793067866018</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5392929243097035</v>
+        <v>0.5390079386155443</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.4351685190967765</v>
+        <v>0.4364371326200961</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2594086884785102</v>
+        <v>0.26001601262024</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2798482340344395</v>
+        <v>0.2779402567556291</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5594742252723014</v>
+        <v>0.5612543826635999</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.490859454173261</v>
+        <v>0.4881531329654066</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2919633462612546</v>
+        <v>0.2913554922982814</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2533832606091192</v>
+        <v>0.2541389126447806</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.5438231341614346</v>
+        <v>0.543496024112343</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4592833350363972</v>
+        <v>0.4590778367979052</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2715281060126578</v>
+        <v>0.2728079837764327</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37118</v>
+        <v>37883</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>114004</v>
+        <v>113964</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>67396</v>
+        <v>67142</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18862</v>
+        <v>18816</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>35925</v>
+        <v>36338</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>139699</v>
+        <v>140777</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>98857</v>
+        <v>98219</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>32070</v>
+        <v>30795</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>79584</v>
+        <v>80010</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>264488</v>
+        <v>265479</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>175371</v>
+        <v>176276</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>57327</v>
+        <v>56509</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>60394</v>
+        <v>61373</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>147374</v>
+        <v>146047</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>97151</v>
+        <v>98502</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>51465</v>
+        <v>49449</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60190</v>
+        <v>60471</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>176196</v>
+        <v>174639</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>130574</v>
+        <v>126808</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63223</v>
+        <v>62846</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>114768</v>
+        <v>114215</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>312408</v>
+        <v>310984</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>217632</v>
+        <v>217544</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>100452</v>
+        <v>100339</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>109049</v>
+        <v>107517</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>235349</v>
+        <v>234669</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>171854</v>
+        <v>171528</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52976</v>
+        <v>52220</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>149340</v>
+        <v>149501</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>360048</v>
+        <v>361078</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>267247</v>
+        <v>265051</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>96672</v>
+        <v>95902</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>268730</v>
+        <v>269011</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>607778</v>
+        <v>603937</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>446155</v>
+        <v>449170</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>161009</v>
+        <v>157750</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>148024</v>
+        <v>145665</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>276072</v>
+        <v>277798</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>210458</v>
+        <v>208084</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>88923</v>
+        <v>88943</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>192117</v>
+        <v>191459</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>399849</v>
+        <v>398588</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>305260</v>
+        <v>303654</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>132156</v>
+        <v>134085</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>326618</v>
+        <v>327608</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>665232</v>
+        <v>664715</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>501957</v>
+        <v>501471</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>212819</v>
+        <v>209511</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>128097</v>
+        <v>128115</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>425728</v>
+        <v>426446</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>295906</v>
+        <v>295641</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>123959</v>
+        <v>124652</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>170418</v>
+        <v>170624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>484915</v>
+        <v>489108</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>359537</v>
+        <v>359310</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>140564</v>
+        <v>142147</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>311682</v>
+        <v>310919</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>926800</v>
+        <v>923125</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>668822</v>
+        <v>669372</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>277091</v>
+        <v>276012</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>170665</v>
+        <v>172270</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>471989</v>
+        <v>469786</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>343667</v>
+        <v>341472</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>168249</v>
+        <v>165738</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>218126</v>
+        <v>216182</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>532167</v>
+        <v>531862</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>404516</v>
+        <v>404469</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>178273</v>
+        <v>178742</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>376048</v>
+        <v>377130</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>991175</v>
+        <v>987482</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>734947</v>
+        <v>732581</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>333445</v>
+        <v>332897</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>52198</v>
+        <v>51497</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>248385</v>
+        <v>249492</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>177765</v>
+        <v>178379</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>101989</v>
+        <v>100464</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>65343</v>
+        <v>66248</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>212006</v>
+        <v>214174</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>180306</v>
+        <v>181459</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>111471</v>
+        <v>113139</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>124924</v>
+        <v>124483</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>472962</v>
+        <v>474891</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>369652</v>
+        <v>366875</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>222465</v>
+        <v>222620</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>84538</v>
+        <v>82400</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>294786</v>
+        <v>294709</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>222882</v>
+        <v>222427</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>139272</v>
+        <v>139394</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>98845</v>
+        <v>97391</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>263592</v>
+        <v>260503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>223946</v>
+        <v>225062</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>143582</v>
+        <v>145058</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>168000</v>
+        <v>171255</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>542006</v>
+        <v>543171</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>431839</v>
+        <v>429418</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>273563</v>
+        <v>275163</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>34916</v>
+        <v>35546</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>92179</v>
+        <v>91724</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>65231</v>
+        <v>66243</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>55171</v>
+        <v>56018</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>57805</v>
+        <v>57387</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>113386</v>
+        <v>112428</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>93398</v>
+        <v>94132</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>66330</v>
+        <v>67707</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>98004</v>
+        <v>99335</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>215009</v>
+        <v>213850</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>169421</v>
+        <v>169310</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>129241</v>
+        <v>128569</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>63114</v>
+        <v>62795</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>126404</v>
+        <v>128221</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>100022</v>
+        <v>99206</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>82841</v>
+        <v>84228</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>89200</v>
+        <v>87029</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>149363</v>
+        <v>149976</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>132896</v>
+        <v>131348</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>91801</v>
+        <v>92015</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>139768</v>
+        <v>139292</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>269352</v>
+        <v>267882</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>222817</v>
+        <v>220116</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>167652</v>
+        <v>167748</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>30593</v>
+        <v>31151</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>74561</v>
+        <v>73817</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>59673</v>
+        <v>58134</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>35685</v>
+        <v>36816</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>65893</v>
+        <v>66935</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>74887</v>
+        <v>76367</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>85671</v>
+        <v>84456</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>61832</v>
+        <v>62218</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>103236</v>
+        <v>105206</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>161096</v>
+        <v>160775</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>152678</v>
+        <v>152427</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>105510</v>
+        <v>103634</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>54552</v>
+        <v>54396</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>109582</v>
+        <v>108474</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>89396</v>
+        <v>88730</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>57659</v>
+        <v>57907</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>95929</v>
+        <v>97019</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>109338</v>
+        <v>109334</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>120669</v>
+        <v>118111</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>84712</v>
+        <v>84399</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>141301</v>
+        <v>143328</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>205483</v>
+        <v>208976</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>197753</v>
+        <v>199307</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>139145</v>
+        <v>135406</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>46851</v>
+        <v>47631</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>98761</v>
+        <v>98474</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>80156</v>
+        <v>79515</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>77246</v>
+        <v>77035</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>90234</v>
+        <v>91665</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>174047</v>
+        <v>172904</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>167686</v>
+        <v>168644</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>184817</v>
+        <v>185235</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>144453</v>
+        <v>144159</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>283373</v>
+        <v>280349</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>256922</v>
+        <v>257633</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>271011</v>
+        <v>272097</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>72253</v>
+        <v>73124</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>132432</v>
+        <v>133800</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>107881</v>
+        <v>107194</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>103867</v>
+        <v>104265</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>127039</v>
+        <v>126014</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>215099</v>
+        <v>212964</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>212577</v>
+        <v>213854</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>216873</v>
+        <v>215679</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>189226</v>
+        <v>190293</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>335734</v>
+        <v>334104</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>312211</v>
+        <v>311832</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>313009</v>
+        <v>313336</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>492223</v>
+        <v>497659</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1371322</v>
+        <v>1369655</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>990902</v>
+        <v>990531</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>528457</v>
+        <v>527880</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>706030</v>
+        <v>705545</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1644436</v>
+        <v>1647469</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1332576</v>
+        <v>1333036</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>756657</v>
+        <v>760142</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1231438</v>
+        <v>1224048</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3049591</v>
+        <v>3041491</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2349754</v>
+        <v>2346657</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1307877</v>
+        <v>1308531</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>577102</v>
+        <v>579595</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1482097</v>
+        <v>1481313</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1087483</v>
+        <v>1090653</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>616210</v>
+        <v>617652</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>804131</v>
+        <v>798648</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1758753</v>
+        <v>1764349</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1449568</v>
+        <v>1441576</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>841249</v>
+        <v>839498</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1352544</v>
+        <v>1356577</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>3204099</v>
+        <v>3202172</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2504066</v>
+        <v>2502946</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1427367</v>
+        <v>1434095</v>
       </c>
     </row>
     <row r="36">
